--- a/appweb_trpr01_grille.xlsx
+++ b/appweb_trpr01_grille.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AraKa\Desktop\Desktop\School\Fourth semester\Dev Application Web\TP\TP1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AraKa\Desktop\Desktop\School\Fourth semester\Dev Application Web\TP\TP1\code\bookManager-tp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CEAC63-2B24-4286-BFFD-B3CCCC4369B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035E5FF2-0290-43F2-A90F-F9A043C6169E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1618,7 +1618,7 @@
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1786,11 +1786,11 @@
         <v>51</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="27">
         <f>VLOOKUP(C11,echelles!$A$8:$B$13,2,FALSE)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -1843,7 +1843,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>14</v>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="D18" s="24">
         <f>SUM(D2:D14)</f>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E18" s="50"/>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B21" s="42">
         <f ca="1">NOW()</f>
-        <v>45724.498040393519</v>
+        <v>45724.673201041667</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>11</v>
@@ -1953,18 +1953,18 @@
       </c>
       <c r="B22" s="43">
         <f>(pts_grandtotal/nb_points)</f>
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="4">
         <f>pts_soustotal-pts_respect-pts_retard-pts_francais</f>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E22" s="14" t="str">
         <f>"Note finale: "&amp;pts_grandtotal/nb_points*100&amp;"%"</f>
-        <v>Note finale: 97%</v>
+        <v>Note finale: 100%</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.5">
